--- a/data/trans_dic/P14B_x_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P14B_x_R-Provincia-trans_dic.xlsx
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,05</t>
+          <t>1,17; 5,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,55</t>
+          <t>0,61; 3,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 15,16</t>
+          <t>7,34; 14,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,6</t>
+          <t>3,08; 6,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 9,67</t>
+          <t>4,53; 9,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,45</t>
+          <t>2,12; 4,45</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,44</t>
+          <t>1,48; 4,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,36</t>
+          <t>2,56; 6,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,21</t>
+          <t>6,07; 11,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,66; 13,07</t>
+          <t>8,51; 12,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,37</t>
+          <t>4,32; 7,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,28</t>
+          <t>6,12; 9,25</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,83</t>
+          <t>3,72; 8,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,46</t>
+          <t>3,33; 8,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,8</t>
+          <t>4,62; 8,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,06</t>
+          <t>2,0; 4,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,9</t>
+          <t>4,7; 8,03</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1154,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,94</t>
+          <t>0,52; 2,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 9,05</t>
+          <t>3,0; 8,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,07</t>
+          <t>2,76; 7,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 11,12</t>
+          <t>6,4; 11,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,52</t>
+          <t>1,87; 4,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 9,11</t>
+          <t>5,63; 9,34</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1294,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 8,22</t>
+          <t>2,7; 8,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,12</t>
+          <t>0,31; 2,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1314,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,48</t>
+          <t>4,91; 12,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,96</t>
+          <t>2,28; 5,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,21</t>
+          <t>4,4; 9,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,13</t>
+          <t>1,9; 4,17</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,83</t>
+          <t>0,3; 2,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,52; 8,4</t>
+          <t>3,63; 8,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,39; 13,73</t>
+          <t>6,44; 14,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,99</t>
+          <t>4,91; 10,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,97</t>
+          <t>3,76; 7,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,09</t>
+          <t>4,77; 8,19</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1574,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,36</t>
+          <t>0,44; 2,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,48</t>
+          <t>3,36; 7,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1594,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,13</t>
+          <t>2,67; 6,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 11,78</t>
+          <t>5,76; 11,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,86</t>
+          <t>1,84; 3,9</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,83</t>
+          <t>5,36; 8,87</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1714,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,42</t>
+          <t>1,31; 3,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,76</t>
+          <t>1,59; 3,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1734,12 +1734,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,36</t>
+          <t>4,85; 8,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,7</t>
+          <t>5,59; 8,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,52</t>
+          <t>3,39; 5,51</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,78; 5,75</t>
+          <t>3,73; 5,79</t>
         </is>
       </c>
     </row>
@@ -1854,12 +1854,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,53</t>
+          <t>1,56; 2,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,19; 4,66</t>
+          <t>3,24; 4,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,63</t>
+          <t>5,89; 7,66</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,87; 8,59</t>
+          <t>6,83; 8,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,97</t>
+          <t>3,93; 4,89</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,38; 6,51</t>
+          <t>5,4; 6,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P14B_x_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P14B_x_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,36</t>
+          <t>1,16; 5,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,34; 14,96</t>
+          <t>7,34; 15,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 9,15</t>
+          <t>4,66; 8,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,32</t>
+          <t>1,5; 4,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,36</t>
+          <t>6,04; 11,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,32</t>
+          <t>4,34; 7,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,17</t>
+          <t>3,15; 8,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,94</t>
+          <t>1,93; 4,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,94</t>
+          <t>0,54; 3,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 7,09</t>
+          <t>2,86; 6,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,5</t>
+          <t>1,92; 4,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 8,79</t>
+          <t>2,63; 8,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 12,45</t>
+          <t>5,34; 12,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,13</t>
+          <t>4,59; 9,26</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,65</t>
+          <t>0,3; 2,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,44; 14,1</t>
+          <t>6,7; 13,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,92</t>
+          <t>3,8; 7,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,44</t>
+          <t>0,45; 2,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,04</t>
+          <t>2,76; 6,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,9</t>
+          <t>1,86; 3,8</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,36</t>
+          <t>1,36; 3,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,58</t>
+          <t>4,79; 8,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,51</t>
+          <t>3,4; 5,42</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,5</t>
+          <t>1,49; 2,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,66</t>
+          <t>5,86; 7,7</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>3,93; 4,89</t>
+          <t>3,85; 4,91</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P14B_x_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P14B_x_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,22</t>
+          <t>1,03; 5,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,65</t>
+          <t>0,61; 3,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,34; 15,13</t>
+          <t>7,51; 15,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,59</t>
+          <t>3,05; 6,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,94</t>
+          <t>4,68; 9,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,45</t>
+          <t>2,17; 4,45</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,54</t>
+          <t>1,48; 4,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,67</t>
+          <t>2,57; 6,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,04; 11,04</t>
+          <t>6,07; 11,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,51; 12,96</t>
+          <t>8,66; 13,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,58</t>
+          <t>4,3; 7,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,25</t>
+          <t>6,17; 9,28</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 8,9</t>
+          <t>3,59; 8,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,05</t>
+          <t>3,2; 8,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,69</t>
+          <t>4,79; 8,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,77</t>
+          <t>2,12; 5,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 8,03</t>
+          <t>4,76; 7,9</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1154,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,05</t>
+          <t>0,5; 2,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,45</t>
+          <t>2,98; 9,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,94</t>
+          <t>2,74; 7,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,4; 11,13</t>
+          <t>6,35; 11,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,43</t>
+          <t>2,07; 4,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,34</t>
+          <t>5,65; 9,11</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1294,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,32</t>
+          <t>2,35; 8,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,93</t>
+          <t>0,31; 3,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1314,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 12,59</t>
+          <t>5,27; 12,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,96</t>
+          <t>2,33; 5,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,26</t>
+          <t>4,63; 9,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,17</t>
+          <t>1,8; 4,13</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,79</t>
+          <t>0,3; 2,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,27</t>
+          <t>3,52; 8,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,7; 13,97</t>
+          <t>6,39; 13,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,91; 10,16</t>
+          <t>4,82; 9,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,82</t>
+          <t>3,6; 7,97</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,77; 8,19</t>
+          <t>4,79; 8,09</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1574,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,43</t>
+          <t>0,45; 2,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,17</t>
+          <t>3,33; 7,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1594,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,07</t>
+          <t>2,81; 6,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,76; 11,86</t>
+          <t>5,43; 11,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,8</t>
+          <t>1,89; 3,86</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,87</t>
+          <t>5,46; 8,83</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1714,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,48</t>
+          <t>1,35; 3,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,88</t>
+          <t>1,53; 3,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1734,12 +1734,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,33</t>
+          <t>4,78; 8,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,91</t>
+          <t>5,59; 8,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,42</t>
+          <t>3,37; 5,52</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,79</t>
+          <t>3,78; 5,75</t>
         </is>
       </c>
     </row>
@@ -1854,12 +1854,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,46</t>
+          <t>1,53; 2,53</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,69</t>
+          <t>3,19; 4,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,7</t>
+          <t>5,87; 7,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,83; 8,67</t>
+          <t>6,87; 8,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>3,85; 4,91</t>
+          <t>3,92; 4,97</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,4; 6,55</t>
+          <t>5,38; 6,51</t>
         </is>
       </c>
     </row>
